--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="98" documentId="10_ncr:8100000_{C2B6A93D-8C52-4CB9-95C5-42970E86037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B6D3642-B5AE-794F-B55C-D2ADE69FC805}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{FF5E1895-4E97-4E38-BBCB-D7C048801193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F19B854-E960-4743-A1CB-D81BBE79E1ED}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="500" windowWidth="27900" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="500" windowWidth="19660" windowHeight="11800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="158">
   <si>
     <t>Name</t>
   </si>
@@ -66,9 +66,6 @@
     <t>TransactionQueue</t>
   </si>
   <si>
-    <t>Transactions queue in Orchestrator</t>
-  </si>
-  <si>
     <t>List of workflows to execute for opening applications</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>Orchestrator: Start an Orchestrator job by its name</t>
   </si>
   <si>
-    <t>RFW-Performer</t>
-  </si>
-  <si>
     <t>Some application executable file path</t>
   </si>
   <si>
@@ -195,15 +189,6 @@
     <t>Orchestrator: Credentials for loggin in</t>
   </si>
   <si>
-    <t>RFW-Login</t>
-  </si>
-  <si>
-    <t>RFW</t>
-  </si>
-  <si>
-    <t>RFW-ToProcess</t>
-  </si>
-  <si>
     <t>OrchestratorLogin</t>
   </si>
   <si>
@@ -249,18 +234,9 @@
     <t>Environment</t>
   </si>
   <si>
-    <t>RFW-Environment</t>
-  </si>
-  <si>
     <t>Message</t>
   </si>
   <si>
-    <t>RFW-TestMessage</t>
-  </si>
-  <si>
-    <t>RFW-TransactionQueue</t>
-  </si>
-  <si>
     <t>TestData/Errors</t>
   </si>
   <si>
@@ -396,9 +372,6 @@
     <t>TestData/Input/*.xls*</t>
   </si>
   <si>
-    <t>RFW-Processed</t>
-  </si>
-  <si>
     <t>Data/EmailTemplate.txt</t>
   </si>
   <si>
@@ -418,6 +391,108 @@
   </si>
   <si>
     <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
+  </si>
+  <si>
+    <t>SYP-TestMessage</t>
+  </si>
+  <si>
+    <t>SYP-Environment</t>
+  </si>
+  <si>
+    <t>SYP-TransactionQueue</t>
+  </si>
+  <si>
+    <t>SYP-Processed</t>
+  </si>
+  <si>
+    <t>SYP-ToProcess</t>
+  </si>
+  <si>
+    <t>SYP-Performer</t>
+  </si>
+  <si>
+    <t>SYP</t>
+  </si>
+  <si>
+    <t>SYP-Login</t>
+  </si>
+  <si>
+    <t>TMDB-API-LANGUAGE</t>
+  </si>
+  <si>
+    <t>SQL-DeletePuntuacion</t>
+  </si>
+  <si>
+    <t>SQL-SelectPuntuacion</t>
+  </si>
+  <si>
+    <t>SQL-UpdatePuntuacion</t>
+  </si>
+  <si>
+    <t>SQL-InsertPuntuacion</t>
+  </si>
+  <si>
+    <t>SQL-DeleteEpisodio</t>
+  </si>
+  <si>
+    <t>SQL-SelectEpisodio</t>
+  </si>
+  <si>
+    <t>SQL-UpdateEpisodio</t>
+  </si>
+  <si>
+    <t>SQL-InsertEpisodio</t>
+  </si>
+  <si>
+    <t>SQL-DeleteCategoria</t>
+  </si>
+  <si>
+    <t>SQL-SelectCategoria</t>
+  </si>
+  <si>
+    <t>SQL-UpdateCategoria</t>
+  </si>
+  <si>
+    <t>SQL-InsertCategoria</t>
+  </si>
+  <si>
+    <t>SQL-DeleteSeropel</t>
+  </si>
+  <si>
+    <t>SQL-SelectSeropel</t>
+  </si>
+  <si>
+    <t>SQL-UpdateSeropel</t>
+  </si>
+  <si>
+    <t>SQL-InsertSeropel</t>
+  </si>
+  <si>
+    <t>DB-Password</t>
+  </si>
+  <si>
+    <t>DB-User</t>
+  </si>
+  <si>
+    <t>DB-Server</t>
+  </si>
+  <si>
+    <t>DB-Database</t>
+  </si>
+  <si>
+    <t>TMDB-API-MOVIES</t>
+  </si>
+  <si>
+    <t>TMDB-API-TVSERIES</t>
+  </si>
+  <si>
+    <t>TMDB-URL</t>
+  </si>
+  <si>
+    <t>TMDB-API-TOKEN</t>
+  </si>
+  <si>
+    <t>TMDB-IMAGE</t>
   </si>
 </sst>
 </file>
@@ -508,10 +583,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -801,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -827,13 +898,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -852,10 +923,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -863,10 +934,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -874,10 +945,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -885,54 +956,54 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -940,18 +1011,18 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -959,90 +1030,90 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1050,136 +1121,109 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>132</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1190,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1208,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1216,18 +1260,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1235,7 +1279,215 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1260,7 +1512,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1271,13 +1523,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1312,145 +1564,145 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
